--- a/ProcessedData/export_to_r/gavi-trib2_XWD_export_eledata_synop.xlsx
+++ b/ProcessedData/export_to_r/gavi-trib2_XWD_export_eledata_synop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2021/ProcessedData/export_to_r/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kriddie\OneDrive - University of North Carolina at Chapel Hill\Documents\Ecuador2021\ProcessedData\export_to_r\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E35CB661-4BCC-424D-9D86-8E8F4FAFB264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6D1CB16E-46FE-4AEC-AADF-B47A9739B43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8200" yWindow="2600" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gavi-trib2_XWD_export_eledata_c" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>lat_fit</t>
   </si>
@@ -83,9 +83,6 @@
     <t>ele_arcpro</t>
   </si>
   <si>
-    <t>dist_diff</t>
-  </si>
-  <si>
     <t>Q_m_s</t>
   </si>
   <si>
@@ -123,13 +120,16 @@
   </si>
   <si>
     <t>catchment_ha</t>
+  </si>
+  <si>
+    <t>catchment_pixel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -263,6 +263,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -606,9 +612,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -668,9 +675,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -708,7 +715,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -814,7 +821,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -956,7 +963,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -964,27 +971,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.1640625" customWidth="1"/>
-    <col min="11" max="22" width="10.83203125" customWidth="1"/>
-    <col min="23" max="23" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="23" width="10.875" customWidth="1"/>
+    <col min="24" max="24" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -998,108 +1006,86 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>-78.203102049999998</v>
-      </c>
-      <c r="B2">
-        <v>-0.33056077299999997</v>
-      </c>
-      <c r="C2">
-        <v>4069.821719</v>
-      </c>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D2">
-        <v>1.2930022779999999</v>
-      </c>
-      <c r="H2" s="1">
-        <v>44370</v>
-      </c>
-      <c r="I2">
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="J2">
-        <v>3573.9832729999998</v>
-      </c>
-      <c r="K2">
-        <v>6.7610000000000001</v>
-      </c>
-      <c r="L2">
-        <v>627.0104</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" t="s">
-        <v>20</v>
-      </c>
-      <c r="X2">
-        <v>17.040600000000001</v>
+        <f>D4-20</f>
+        <v>-18.706997722000001</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4067.9765619999998</v>
+      </c>
+      <c r="F2" s="2">
+        <v>18262</v>
+      </c>
+      <c r="G2" s="2">
+        <f>F2*3*3*0.0001</f>
+        <v>16.4358</v>
       </c>
       <c r="Y2">
         <v>1.9650000000000002E-3</v>
@@ -1108,351 +1094,386 @@
         <v>10.638</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <f>D4-10</f>
+        <v>-8.7069977220000006</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4067.133057</v>
+      </c>
+      <c r="F3" s="2">
+        <v>18334</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G13" si="0">F3*3*3*0.0001</f>
+        <v>16.500600000000002</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-78.203102049999998</v>
+      </c>
+      <c r="B4">
+        <v>-0.33056077299999997</v>
+      </c>
+      <c r="C4">
+        <v>4069.821719</v>
+      </c>
+      <c r="D4">
+        <v>1.2930022779999999</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4066.2683109999998</v>
+      </c>
+      <c r="F4" s="2">
+        <v>18380</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>16.542000000000002</v>
+      </c>
+      <c r="H4">
+        <v>-7.3</v>
+      </c>
+      <c r="K4" s="1">
+        <v>44370</v>
+      </c>
+      <c r="L4">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="M4">
+        <v>3573.9832729999998</v>
+      </c>
+      <c r="N4">
+        <v>6.7610000000000001</v>
+      </c>
+      <c r="O4">
+        <v>627.0104</v>
+      </c>
+      <c r="P4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4">
+        <f>D5-D3</f>
+        <v>16.876558379000002</v>
+      </c>
+      <c r="T4">
+        <f>E5-E3</f>
+        <v>-1.361084343750008</v>
+      </c>
+      <c r="U4">
+        <f>ABS(T4)/S4</f>
+        <v>8.0649402157945027E-2</v>
+      </c>
+      <c r="V4">
+        <f>D4-D2</f>
+        <v>20</v>
+      </c>
+      <c r="W4">
+        <f>E4-E2</f>
+        <v>-1.7082510000000184</v>
+      </c>
+      <c r="X4">
+        <f>ABS(W4)/V4</f>
+        <v>8.541255000000092E-2</v>
+      </c>
+      <c r="Z4">
+        <v>10.638</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>-0.33062067299999998</v>
       </c>
-      <c r="B3">
+      <c r="B5">
         <v>-78.203117129999995</v>
       </c>
-      <c r="C3">
+      <c r="C5">
         <v>4069.3332310000001</v>
       </c>
-      <c r="D3">
+      <c r="D5">
         <v>8.1695606569999999</v>
       </c>
-      <c r="E3">
+      <c r="E5">
+        <v>4065.77197265625</v>
+      </c>
+      <c r="F5">
+        <v>18410</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>16.568999999999999</v>
+      </c>
+      <c r="H5">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="I5">
         <v>3</v>
       </c>
-      <c r="G3">
+      <c r="J5">
         <v>31</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-0.33069927300000002</v>
+      </c>
+      <c r="B6">
+        <v>-78.203133679999993</v>
+      </c>
+      <c r="C6">
+        <v>4068.7116129999999</v>
+      </c>
+      <c r="D6">
+        <v>17.11182552</v>
+      </c>
+      <c r="E6">
+        <v>4065.15087890625</v>
+      </c>
+      <c r="F6">
+        <v>18464</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>16.617599999999999</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>40</v>
+      </c>
+      <c r="K6" s="1">
+        <v>44370</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <v>2019.293163</v>
+      </c>
+      <c r="N6">
+        <v>6.7629999999999999</v>
+      </c>
+      <c r="O6">
+        <v>627.01239999999996</v>
+      </c>
+      <c r="P6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S6">
+        <f>D7-D5</f>
+        <v>16.657446513000004</v>
+      </c>
+      <c r="T6">
+        <f>E7-E5</f>
+        <v>-1.198974609375</v>
+      </c>
+      <c r="U6">
+        <f>ABS(T6)/S6</f>
+        <v>7.1978295619276447E-2</v>
+      </c>
+      <c r="V6">
+        <f>D6-D4</f>
+        <v>15.818823242000001</v>
+      </c>
+      <c r="W6">
+        <f t="shared" ref="W6" si="1">E6-E4</f>
+        <v>-1.1174320937498123</v>
+      </c>
+      <c r="X6">
+        <f>ABS(W6)/V6</f>
+        <v>7.0639394388260043E-2</v>
+      </c>
+      <c r="Z6">
+        <v>10.862500000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-0.33076757299999998</v>
+      </c>
+      <c r="B7">
+        <v>-78.20314544</v>
+      </c>
+      <c r="C7">
+        <v>4068.1911490000002</v>
+      </c>
+      <c r="D7">
+        <v>24.827007170000002</v>
+      </c>
+      <c r="E7">
+        <v>4064.572998046875</v>
+      </c>
+      <c r="F7">
+        <v>18612</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>16.750800000000002</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>49</v>
+      </c>
+      <c r="L7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" t="s">
         <v>21</v>
       </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3">
-        <v>4065.7719729999999</v>
-      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>-0.33069927300000002</v>
-      </c>
-      <c r="B4">
-        <v>-78.203133679999993</v>
-      </c>
-      <c r="C4">
-        <v>4068.7116129999999</v>
-      </c>
-      <c r="D4">
-        <v>17.11182552</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>8</v>
-      </c>
-      <c r="G4">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-0.330849173</v>
+      </c>
+      <c r="B8">
+        <v>-78.203156750000005</v>
+      </c>
+      <c r="C8">
+        <v>4067.582034</v>
+      </c>
+      <c r="D8">
+        <v>33.997982399999998</v>
+      </c>
+      <c r="E8">
+        <v>4063.792236328125</v>
+      </c>
+      <c r="F8">
+        <v>18621</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>16.758900000000001</v>
+      </c>
+      <c r="H8">
+        <v>30</v>
+      </c>
+      <c r="I8">
+        <v>9</v>
+      </c>
+      <c r="J8">
+        <v>48</v>
+      </c>
+      <c r="L8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-0.330957473</v>
+      </c>
+      <c r="B9">
+        <v>-78.203168090000005</v>
+      </c>
+      <c r="C9">
+        <v>4066.7120960000002</v>
+      </c>
+      <c r="D9">
+        <v>46.120403979999999</v>
+      </c>
+      <c r="E9">
+        <v>4062.72314453125</v>
+      </c>
+      <c r="F9">
+        <v>18633</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>16.7697</v>
+      </c>
+      <c r="H9">
         <v>40</v>
       </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4">
-        <v>4065.1508789999998</v>
-      </c>
-      <c r="Q4">
-        <v>10</v>
-      </c>
-      <c r="R4">
-        <f>D6-D3</f>
-        <v>16.657446513000004</v>
-      </c>
-      <c r="S4">
-        <f>P6-P3</f>
-        <v>-1.1989749999997912</v>
-      </c>
-      <c r="T4">
-        <f>ABS(S4)/R4</f>
-        <v>7.1978319069736937E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>-78.203133800000003</v>
-      </c>
-      <c r="B5">
-        <v>-0.33069987299999998</v>
-      </c>
-      <c r="C5">
-        <v>4068.7070180000001</v>
-      </c>
-      <c r="D5">
-        <v>17.17979832</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>24</v>
+      </c>
+      <c r="K9" s="1">
         <v>44370</v>
       </c>
-      <c r="I5">
-        <v>0.5</v>
-      </c>
-      <c r="J5">
-        <v>2019.293163</v>
-      </c>
-      <c r="K5">
-        <v>6.7629999999999999</v>
-      </c>
-      <c r="L5">
-        <v>627.01239999999996</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="L9">
+        <v>2.59</v>
+      </c>
+      <c r="M9">
+        <v>1460.886328</v>
+      </c>
+      <c r="N9">
+        <v>6.7720000000000002</v>
+      </c>
+      <c r="O9">
+        <v>626.97739999999999</v>
+      </c>
+      <c r="P9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" t="s">
         <v>19</v>
       </c>
-      <c r="N5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X5">
-        <v>16.5654</v>
-      </c>
-      <c r="Z5">
-        <v>10.862500000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>-0.33076757299999998</v>
-      </c>
-      <c r="B6">
-        <v>-78.20314544</v>
-      </c>
-      <c r="C6">
-        <v>4068.1911490000002</v>
-      </c>
-      <c r="D6">
-        <v>24.827007170000002</v>
-      </c>
-      <c r="E6">
-        <v>20</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>49</v>
-      </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6">
-        <v>4064.5729980000001</v>
-      </c>
-      <c r="Q6">
-        <v>10</v>
-      </c>
-      <c r="R6">
-        <f>D7-D4</f>
-        <v>16.886156879999998</v>
-      </c>
-      <c r="S6">
-        <f>P7-P4</f>
-        <v>-1.3586430000000291</v>
-      </c>
-      <c r="T6">
-        <f t="shared" ref="T6:T12" si="0">ABS(S6)/R6</f>
-        <v>8.0458982446693306E-2</v>
-      </c>
-      <c r="U6">
-        <f>D6-D3</f>
-        <v>16.657446513000004</v>
-      </c>
-      <c r="V6">
-        <f>P6-P3</f>
-        <v>-1.1989749999997912</v>
-      </c>
-      <c r="W6">
-        <f>ABS(V6)/U6</f>
-        <v>7.1978319069736937E-2</v>
-      </c>
-      <c r="Y6">
-        <v>1.9650000000000002E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>-0.330849173</v>
-      </c>
-      <c r="B7">
-        <v>-78.203156750000005</v>
-      </c>
-      <c r="C7">
-        <v>4067.582034</v>
-      </c>
-      <c r="D7">
-        <v>33.997982399999998</v>
-      </c>
-      <c r="E7">
-        <v>30</v>
-      </c>
-      <c r="F7">
-        <v>9</v>
-      </c>
-      <c r="G7">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7">
-        <v>4063.7922359999998</v>
-      </c>
-      <c r="Q7">
-        <v>10</v>
-      </c>
-      <c r="R7">
-        <f>D8-D6</f>
+      <c r="S9">
+        <f>D10-D8</f>
+        <v>23.444537340000004</v>
+      </c>
+      <c r="T9">
+        <f>E10-E8</f>
+        <v>-1.897216796875</v>
+      </c>
+      <c r="U9">
+        <f t="shared" ref="U9" si="2">ABS(T9)/S9</f>
+        <v>8.0923618553907437E-2</v>
+      </c>
+      <c r="V9">
+        <f>D9-D7</f>
         <v>21.293396809999997</v>
       </c>
-      <c r="S7">
-        <f>P8-P6</f>
-        <v>-1.8498530000001665</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="0"/>
-        <v>8.6874490552461867E-2</v>
-      </c>
-      <c r="U7">
-        <f>D7-D4</f>
-        <v>16.886156879999998</v>
-      </c>
-      <c r="V7">
-        <f>P7-P4</f>
-        <v>-1.3586430000000291</v>
-      </c>
-      <c r="W7">
-        <f t="shared" ref="W7:W12" si="1">ABS(V7)/U7</f>
-        <v>8.0458982446693306E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>-0.330957473</v>
-      </c>
-      <c r="B8">
-        <v>-78.203168090000005</v>
-      </c>
-      <c r="C8">
-        <v>4066.7120960000002</v>
-      </c>
-      <c r="D8">
-        <v>46.120403979999999</v>
-      </c>
-      <c r="E8">
-        <v>40</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8">
-        <v>24</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" t="s">
-        <v>21</v>
-      </c>
-      <c r="P8">
-        <v>4062.7231449999999</v>
-      </c>
-      <c r="Q8">
-        <v>10</v>
-      </c>
-      <c r="R8">
-        <f>D10-D7</f>
-        <v>23.444537340000004</v>
-      </c>
-      <c r="S8">
-        <f>P10-P7</f>
-        <v>-1.8972159999998439</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="0"/>
-        <v>8.0923584564106546E-2</v>
-      </c>
-      <c r="U8">
-        <f>D8-D6</f>
-        <v>21.293396809999997</v>
-      </c>
-      <c r="V8">
-        <f>P8-P6</f>
-        <v>-1.8498530000001665</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="1"/>
-        <v>8.6874490552461867E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>-78.203168610000006</v>
-      </c>
-      <c r="B9">
-        <v>-0.330963273</v>
-      </c>
-      <c r="C9">
-        <v>4066.6468540000001</v>
-      </c>
-      <c r="D9">
-        <v>46.768564640000001</v>
-      </c>
-      <c r="H9" s="1">
-        <v>44370</v>
-      </c>
-      <c r="I9">
-        <v>2.59</v>
-      </c>
-      <c r="J9">
-        <v>1460.886328</v>
-      </c>
-      <c r="K9">
-        <v>6.7720000000000002</v>
-      </c>
-      <c r="L9">
-        <v>626.97739999999999</v>
-      </c>
-      <c r="M9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" t="s">
-        <v>20</v>
+      <c r="W9">
+        <f>E9-E7</f>
+        <v>-1.849853515625</v>
       </c>
       <c r="X9">
-        <v>18.246600000000001</v>
+        <f t="shared" ref="X9" si="3">ABS(W9)/V9</f>
+        <v>8.6874514767707481E-2</v>
       </c>
       <c r="Z9">
         <v>11.34625</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-0.33105887299999998</v>
       </c>
@@ -1466,52 +1487,32 @@
         <v>57.442519740000002</v>
       </c>
       <c r="E10">
+        <v>4061.89501953125</v>
+      </c>
+      <c r="F10">
+        <v>20202</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>18.181800000000003</v>
+      </c>
+      <c r="H10">
         <v>50</v>
       </c>
-      <c r="F10">
+      <c r="I10">
         <v>4</v>
       </c>
-      <c r="G10">
+      <c r="J10">
         <v>40</v>
       </c>
-      <c r="I10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" t="s">
-        <v>21</v>
-      </c>
-      <c r="P10">
-        <v>4061.8950199999999</v>
-      </c>
-      <c r="Q10">
-        <v>10</v>
-      </c>
-      <c r="R10">
-        <f>D11-D8</f>
-        <v>20.234514389999994</v>
-      </c>
-      <c r="S10">
-        <f>P11-P8</f>
-        <v>-1.3901369999998678</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="0"/>
-        <v>6.8701278083890219E-2</v>
-      </c>
-      <c r="U10">
-        <f>D10-D7</f>
-        <v>23.444537340000004</v>
-      </c>
-      <c r="V10">
-        <f>P10-P7</f>
-        <v>-1.8972159999998439</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="1"/>
-        <v>8.0923584564106546E-2</v>
+      <c r="L10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-0.331138773</v>
       </c>
@@ -1525,52 +1526,32 @@
         <v>66.354918369999993</v>
       </c>
       <c r="E11">
+        <v>4061.3330078125</v>
+      </c>
+      <c r="F11">
+        <v>20268</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>18.241199999999999</v>
+      </c>
+      <c r="H11">
         <v>60</v>
       </c>
-      <c r="F11">
+      <c r="I11">
         <v>3</v>
       </c>
-      <c r="G11">
+      <c r="J11">
         <v>40</v>
       </c>
-      <c r="I11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" t="s">
-        <v>21</v>
-      </c>
-      <c r="P11">
-        <v>4061.3330080000001</v>
-      </c>
-      <c r="Q11">
-        <v>10</v>
-      </c>
-      <c r="R11">
-        <f>D12-D10</f>
-        <v>16.305402570000005</v>
-      </c>
-      <c r="S11">
-        <f>P12-P10</f>
-        <v>-0.90673900000001595</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="0"/>
-        <v>5.5609727886651965E-2</v>
-      </c>
-      <c r="U11">
-        <f>D11-D8</f>
-        <v>20.234514389999994</v>
-      </c>
-      <c r="V11">
-        <f>P11-P8</f>
-        <v>-1.3901369999998678</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="1"/>
-        <v>6.8701278083890219E-2</v>
+      <c r="L11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-0.33120507300000002</v>
       </c>
@@ -1584,52 +1565,32 @@
         <v>73.747922310000007</v>
       </c>
       <c r="E12">
+        <v>4060.98828125</v>
+      </c>
+      <c r="F12">
+        <v>20273</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>18.245699999999999</v>
+      </c>
+      <c r="H12">
         <v>70</v>
       </c>
-      <c r="F12">
+      <c r="I12">
         <v>5</v>
       </c>
-      <c r="G12">
+      <c r="J12">
         <v>36</v>
       </c>
-      <c r="I12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" t="s">
-        <v>21</v>
-      </c>
-      <c r="P12">
-        <v>4060.9882809999999</v>
-      </c>
-      <c r="Q12">
-        <v>10</v>
-      </c>
-      <c r="R12">
-        <f>D12-D11</f>
-        <v>7.393003940000014</v>
-      </c>
-      <c r="S12">
-        <f>P12-P11</f>
-        <v>-0.34472700000014811</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="0"/>
-        <v>4.662881323990576E-2</v>
-      </c>
-      <c r="U12">
-        <f>D12-D10</f>
-        <v>16.305402570000005</v>
-      </c>
-      <c r="V12">
-        <f>P12-P10</f>
-        <v>-0.90673900000001595</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="1"/>
-        <v>5.5609727886651965E-2</v>
+      <c r="L12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-78.203185540000007</v>
       </c>
@@ -1642,35 +1603,78 @@
       <c r="D13">
         <v>74.941012970000003</v>
       </c>
-      <c r="H13" s="1">
+      <c r="E13" s="2">
+        <v>4060.83374</v>
+      </c>
+      <c r="F13" s="2">
+        <v>20274</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>18.246600000000001</v>
+      </c>
+      <c r="H13">
+        <v>73</v>
+      </c>
+      <c r="K13" s="1">
         <v>44370</v>
       </c>
-      <c r="I13">
+      <c r="L13">
         <v>2.2799999999999998</v>
       </c>
-      <c r="J13">
+      <c r="M13">
         <v>1404.899821</v>
       </c>
-      <c r="K13">
+      <c r="N13">
         <v>6.7750000000000004</v>
       </c>
-      <c r="L13">
+      <c r="O13">
         <v>626.94539999999995</v>
       </c>
-      <c r="M13" t="s">
+      <c r="P13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q13" t="s">
         <v>19</v>
       </c>
-      <c r="N13" t="s">
-        <v>20</v>
+      <c r="S13">
+        <f>D14-D11</f>
+        <v>18.58609460000001</v>
+      </c>
+      <c r="T13">
+        <f>E14-E11</f>
+        <v>-1.0974118125000132</v>
+      </c>
+      <c r="U13">
+        <f t="shared" ref="U13" si="4">ABS(T13)/S13</f>
+        <v>5.9044777082971081E-2</v>
+      </c>
+      <c r="V13">
+        <f>D13-D10</f>
+        <v>17.498493230000001</v>
+      </c>
+      <c r="W13">
+        <f>E13-E10</f>
+        <v>-1.0612795312499657</v>
       </c>
       <c r="X13">
-        <v>17.587800000000001</v>
+        <f t="shared" ref="X13" si="5">ABS(W13)/V13</f>
+        <v>6.0649766657078372E-2</v>
       </c>
       <c r="Y13">
         <v>2.3319999999999999E-3</v>
       </c>
       <c r="Z13">
         <v>11.45275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f>D13+10</f>
+        <v>84.941012970000003</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4060.235596</v>
       </c>
     </row>
   </sheetData>
